--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-17.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="597">
   <si>
     <t>League</t>
   </si>
@@ -1805,36 +1805,6 @@
   </si>
   <si>
     <t>Aguilas Doradas</t>
-  </si>
-  <si>
-    <t>33114220</t>
-  </si>
-  <si>
-    <t>33098586</t>
-  </si>
-  <si>
-    <t>1.226264691</t>
-  </si>
-  <si>
-    <t>1.226017037</t>
-  </si>
-  <si>
-    <t>1.226264736</t>
-  </si>
-  <si>
-    <t>1.226017040</t>
-  </si>
-  <si>
-    <t>1.226264775</t>
-  </si>
-  <si>
-    <t>1.226017084</t>
-  </si>
-  <si>
-    <t>1.226264700</t>
-  </si>
-  <si>
-    <t>1.226017085</t>
   </si>
 </sst>
 </file>
@@ -6310,8 +6280,8 @@
       <c r="BE21">
         <v>1000</v>
       </c>
-      <c r="BF21" t="s">
-        <v>597</v>
+      <c r="BF21">
+        <v>33114220</v>
       </c>
       <c r="BG21">
         <v>21952475</v>
@@ -6322,17 +6292,17 @@
       <c r="BI21">
         <v>58805</v>
       </c>
-      <c r="BJ21" t="s">
-        <v>599</v>
-      </c>
-      <c r="BK21" t="s">
-        <v>601</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>603</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>605</v>
+      <c r="BJ21">
+        <v>1.226264691</v>
+      </c>
+      <c r="BK21">
+        <v>1.226264736</v>
+      </c>
+      <c r="BL21">
+        <v>1.226264775</v>
+      </c>
+      <c r="BM21">
+        <v>1.2262647</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -6507,8 +6477,8 @@
       <c r="BE22">
         <v>1000</v>
       </c>
-      <c r="BF22" t="s">
-        <v>598</v>
+      <c r="BF22">
+        <v>33098586</v>
       </c>
       <c r="BG22">
         <v>42091241</v>
@@ -6519,17 +6489,17 @@
       <c r="BI22">
         <v>58805</v>
       </c>
-      <c r="BJ22" t="s">
-        <v>600</v>
-      </c>
-      <c r="BK22" t="s">
-        <v>602</v>
-      </c>
-      <c r="BL22" t="s">
-        <v>604</v>
-      </c>
-      <c r="BM22" t="s">
-        <v>606</v>
+      <c r="BJ22">
+        <v>1.226017037</v>
+      </c>
+      <c r="BK22">
+        <v>1.22601704</v>
+      </c>
+      <c r="BL22">
+        <v>1.226017084</v>
+      </c>
+      <c r="BM22">
+        <v>1.226017085</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -42600,157 +42570,157 @@
         <v>591</v>
       </c>
       <c r="F206">
+        <v>2.54</v>
+      </c>
+      <c r="G206">
+        <v>2.62</v>
+      </c>
+      <c r="H206">
+        <v>2.98</v>
+      </c>
+      <c r="I206">
+        <v>3.1</v>
+      </c>
+      <c r="J206">
+        <v>3.5</v>
+      </c>
+      <c r="K206">
+        <v>3.6</v>
+      </c>
+      <c r="L206">
+        <v>1.93</v>
+      </c>
+      <c r="M206">
+        <v>1.98</v>
+      </c>
+      <c r="N206">
+        <v>2.02</v>
+      </c>
+      <c r="O206">
         <v>2.08</v>
       </c>
-      <c r="G206">
-        <v>2.26</v>
-      </c>
-      <c r="H206">
-        <v>3.3</v>
-      </c>
-      <c r="I206">
-        <v>4</v>
-      </c>
-      <c r="J206">
-        <v>3.35</v>
-      </c>
-      <c r="K206">
-        <v>3.95</v>
-      </c>
-      <c r="L206">
-        <v>1.91</v>
-      </c>
-      <c r="M206">
-        <v>2.14</v>
-      </c>
-      <c r="N206">
-        <v>1.88</v>
-      </c>
-      <c r="O206">
-        <v>2.1</v>
-      </c>
       <c r="P206">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="Q206">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="R206">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="S206">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="T206">
         <v>11.5</v>
       </c>
       <c r="U206">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V206">
+        <v>11</v>
+      </c>
+      <c r="W206">
+        <v>12.5</v>
+      </c>
+      <c r="X206">
+        <v>18</v>
+      </c>
+      <c r="Y206">
+        <v>22</v>
+      </c>
+      <c r="Z206">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AA206">
+        <v>55</v>
+      </c>
+      <c r="AB206">
+        <v>9.6</v>
+      </c>
+      <c r="AC206">
+        <v>11</v>
+      </c>
+      <c r="AD206">
+        <v>7</v>
+      </c>
+      <c r="AE206">
+        <v>8.4</v>
+      </c>
+      <c r="AF206">
         <v>11.5</v>
       </c>
-      <c r="W206">
+      <c r="AG206">
+        <v>14.5</v>
+      </c>
+      <c r="AH206">
+        <v>26</v>
+      </c>
+      <c r="AI206">
+        <v>36</v>
+      </c>
+      <c r="AJ206">
+        <v>14</v>
+      </c>
+      <c r="AK206">
+        <v>17.5</v>
+      </c>
+      <c r="AL206">
+        <v>10.5</v>
+      </c>
+      <c r="AM206">
+        <v>13</v>
+      </c>
+      <c r="AN206">
         <v>15.5</v>
-      </c>
-      <c r="X206">
-        <v>20</v>
-      </c>
-      <c r="Y206">
-        <v>28</v>
-      </c>
-      <c r="Z206">
-        <v>50</v>
-      </c>
-      <c r="AA206">
-        <v>1000</v>
-      </c>
-      <c r="AB206">
-        <v>8.4</v>
-      </c>
-      <c r="AC206">
-        <v>11.5</v>
-      </c>
-      <c r="AD206">
-        <v>6.8</v>
-      </c>
-      <c r="AE206">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AF206">
-        <v>12</v>
-      </c>
-      <c r="AG206">
-        <v>16.5</v>
-      </c>
-      <c r="AH206">
-        <v>32</v>
-      </c>
-      <c r="AI206">
-        <v>46</v>
-      </c>
-      <c r="AJ206">
-        <v>11</v>
-      </c>
-      <c r="AK206">
-        <v>15.5</v>
-      </c>
-      <c r="AL206">
-        <v>9</v>
-      </c>
-      <c r="AM206">
-        <v>12.5</v>
-      </c>
-      <c r="AN206">
-        <v>14.5</v>
       </c>
       <c r="AO206">
         <v>20</v>
       </c>
       <c r="AP206">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AQ206">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AR206">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AS206">
+        <v>38</v>
+      </c>
+      <c r="AT206">
+        <v>23</v>
+      </c>
+      <c r="AU206">
         <v>30</v>
-      </c>
-      <c r="AT206">
-        <v>18.5</v>
-      </c>
-      <c r="AU206">
-        <v>26</v>
       </c>
       <c r="AV206">
         <v>30</v>
       </c>
       <c r="AW206">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AX206">
-        <v>1.01</v>
+        <v>8.4</v>
       </c>
       <c r="AY206">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ206">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="BA206">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="BB206">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="BC206">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="BD206">
-        <v>1.01</v>
+        <v>9</v>
       </c>
       <c r="BE206">
         <v>1000</v>
@@ -42797,157 +42767,157 @@
         <v>592</v>
       </c>
       <c r="F207">
-        <v>2.26</v>
+        <v>2.52</v>
       </c>
       <c r="G207">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="H207">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I207">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="J207">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K207">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="L207">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="M207">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="N207">
-        <v>2.56</v>
+        <v>2.76</v>
       </c>
       <c r="O207">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="P207">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="Q207">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="R207">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S207">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T207">
-        <v>1.72</v>
+        <v>6.6</v>
       </c>
       <c r="U207">
         <v>980</v>
       </c>
       <c r="V207">
-        <v>1.2</v>
+        <v>8.4</v>
       </c>
       <c r="W207">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="X207">
-        <v>1.1</v>
+        <v>18.5</v>
       </c>
       <c r="Y207">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="Z207">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="AA207">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB207">
-        <v>1.72</v>
+        <v>6.4</v>
       </c>
       <c r="AC207">
         <v>980</v>
       </c>
       <c r="AD207">
-        <v>1.72</v>
+        <v>6</v>
       </c>
       <c r="AE207">
         <v>980</v>
       </c>
       <c r="AF207">
-        <v>1.16</v>
+        <v>13</v>
       </c>
       <c r="AG207">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AH207">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="AI207">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ207">
-        <v>1.25</v>
+        <v>11</v>
       </c>
       <c r="AK207">
         <v>980</v>
       </c>
       <c r="AL207">
-        <v>1.27</v>
+        <v>10</v>
       </c>
       <c r="AM207">
         <v>980</v>
       </c>
       <c r="AN207">
-        <v>1.1</v>
+        <v>19</v>
       </c>
       <c r="AO207">
         <v>980</v>
       </c>
       <c r="AP207">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="AQ207">
         <v>1000</v>
       </c>
       <c r="AR207">
-        <v>1.1</v>
+        <v>3.95</v>
       </c>
       <c r="AS207">
         <v>1000</v>
       </c>
       <c r="AT207">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="AU207">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV207">
-        <v>1.1</v>
+        <v>3.95</v>
       </c>
       <c r="AW207">
         <v>1000</v>
       </c>
       <c r="AX207">
-        <v>1.1</v>
+        <v>3.95</v>
       </c>
       <c r="AY207">
         <v>1000</v>
       </c>
       <c r="AZ207">
-        <v>1.1</v>
+        <v>1.92</v>
       </c>
       <c r="BA207">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB207">
-        <v>1.1</v>
+        <v>1.74</v>
       </c>
       <c r="BC207">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD207">
-        <v>1.1</v>
+        <v>1.75</v>
       </c>
       <c r="BE207">
         <v>1000</v>
@@ -42994,157 +42964,157 @@
         <v>593</v>
       </c>
       <c r="F208">
+        <v>3.3</v>
+      </c>
+      <c r="G208">
+        <v>3.4</v>
+      </c>
+      <c r="H208">
+        <v>2.66</v>
+      </c>
+      <c r="I208">
+        <v>2.7</v>
+      </c>
+      <c r="J208">
+        <v>3</v>
+      </c>
+      <c r="K208">
         <v>3.1</v>
       </c>
-      <c r="G208">
-        <v>3.75</v>
-      </c>
-      <c r="H208">
-        <v>2.42</v>
-      </c>
-      <c r="I208">
-        <v>2.94</v>
-      </c>
-      <c r="J208">
-        <v>2.9</v>
-      </c>
-      <c r="K208">
-        <v>3.4</v>
-      </c>
       <c r="L208">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="M208">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="N208">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="O208">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="P208">
         <v>2.08</v>
       </c>
       <c r="Q208">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="R208">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="S208">
         <v>1.93</v>
       </c>
       <c r="T208">
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="U208">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="V208">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W208">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="X208">
-        <v>5.1</v>
+        <v>12</v>
       </c>
       <c r="Y208">
         <v>980</v>
       </c>
       <c r="Z208">
-        <v>1.31</v>
+        <v>7.2</v>
       </c>
       <c r="AA208">
         <v>980</v>
       </c>
       <c r="AB208">
-        <v>4.3</v>
+        <v>8</v>
       </c>
       <c r="AC208">
         <v>980</v>
       </c>
       <c r="AD208">
-        <v>3.8</v>
+        <v>6.2</v>
       </c>
       <c r="AE208">
-        <v>980</v>
+        <v>7.4</v>
       </c>
       <c r="AF208">
-        <v>4.9</v>
+        <v>10.5</v>
       </c>
       <c r="AG208">
         <v>980</v>
       </c>
       <c r="AH208">
-        <v>1.33</v>
+        <v>7.2</v>
       </c>
       <c r="AI208">
         <v>980</v>
       </c>
       <c r="AJ208">
-        <v>2.46</v>
+        <v>17</v>
       </c>
       <c r="AK208">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AL208">
-        <v>5.2</v>
+        <v>12.5</v>
       </c>
       <c r="AM208">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AN208">
-        <v>1.65</v>
+        <v>6.4</v>
       </c>
       <c r="AO208">
         <v>980</v>
       </c>
       <c r="AP208">
-        <v>1.2</v>
+        <v>3.15</v>
       </c>
       <c r="AQ208">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR208">
-        <v>1.31</v>
+        <v>5.3</v>
       </c>
       <c r="AS208">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT208">
-        <v>1.28</v>
+        <v>7.6</v>
       </c>
       <c r="AU208">
         <v>980</v>
       </c>
       <c r="AV208">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="AW208">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX208">
-        <v>1.1</v>
+        <v>3.25</v>
       </c>
       <c r="AY208">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ208">
-        <v>1.1</v>
+        <v>2.14</v>
       </c>
       <c r="BA208">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB208">
-        <v>1.12</v>
+        <v>2.2</v>
       </c>
       <c r="BC208">
         <v>980</v>
       </c>
       <c r="BD208">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="BE208">
         <v>1000</v>
@@ -43191,160 +43161,160 @@
         <v>594</v>
       </c>
       <c r="F209">
-        <v>2.54</v>
+        <v>3.05</v>
       </c>
       <c r="G209">
-        <v>2.72</v>
+        <v>3.1</v>
       </c>
       <c r="H209">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="I209">
-        <v>2.68</v>
+        <v>2.44</v>
       </c>
       <c r="J209">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K209">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L209">
-        <v>2.7</v>
+        <v>2.32</v>
       </c>
       <c r="M209">
-        <v>2.9</v>
+        <v>2.42</v>
       </c>
       <c r="N209">
-        <v>1.52</v>
+        <v>1.7</v>
       </c>
       <c r="O209">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
       <c r="P209">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="Q209">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="R209">
-        <v>2.76</v>
+        <v>2.42</v>
       </c>
       <c r="S209">
-        <v>2.98</v>
+        <v>2.6</v>
       </c>
       <c r="T209">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="U209">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="V209">
+        <v>12</v>
+      </c>
+      <c r="W209">
+        <v>16.5</v>
+      </c>
+      <c r="X209">
         <v>13</v>
       </c>
-      <c r="W209">
+      <c r="Y209">
         <v>22</v>
       </c>
-      <c r="X209">
-        <v>15.5</v>
-      </c>
-      <c r="Y209">
-        <v>26</v>
-      </c>
       <c r="Z209">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="AA209">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AB209">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC209">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AD209">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AE209">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF209">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AG209">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH209">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI209">
         <v>29</v>
       </c>
       <c r="AJ209">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AK209">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL209">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AM209">
         <v>16</v>
       </c>
       <c r="AN209">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AO209">
+        <v>19.5</v>
+      </c>
+      <c r="AP209">
+        <v>4.9</v>
+      </c>
+      <c r="AQ209">
+        <v>40</v>
+      </c>
+      <c r="AR209">
+        <v>38</v>
+      </c>
+      <c r="AS209">
+        <v>60</v>
+      </c>
+      <c r="AT209">
+        <v>21</v>
+      </c>
+      <c r="AU209">
+        <v>36</v>
+      </c>
+      <c r="AV209">
+        <v>26</v>
+      </c>
+      <c r="AW209">
+        <v>46</v>
+      </c>
+      <c r="AX209">
+        <v>5.3</v>
+      </c>
+      <c r="AY209">
+        <v>85</v>
+      </c>
+      <c r="AZ209">
+        <v>3.65</v>
+      </c>
+      <c r="BA209">
+        <v>26</v>
+      </c>
+      <c r="BB209">
+        <v>3.45</v>
+      </c>
+      <c r="BC209">
         <v>18.5</v>
       </c>
-      <c r="AP209">
-        <v>20</v>
-      </c>
-      <c r="AQ209">
-        <v>34</v>
-      </c>
-      <c r="AR209">
-        <v>28</v>
-      </c>
-      <c r="AS209">
-        <v>48</v>
-      </c>
-      <c r="AT209">
-        <v>17.5</v>
-      </c>
-      <c r="AU209">
-        <v>29</v>
-      </c>
-      <c r="AV209">
-        <v>21</v>
-      </c>
-      <c r="AW209">
-        <v>36</v>
-      </c>
-      <c r="AX209">
-        <v>46</v>
-      </c>
-      <c r="AY209">
-        <v>65</v>
-      </c>
-      <c r="AZ209">
-        <v>1.01</v>
-      </c>
-      <c r="BA209">
-        <v>16</v>
-      </c>
-      <c r="BB209">
-        <v>1.01</v>
-      </c>
-      <c r="BC209">
-        <v>15.5</v>
-      </c>
       <c r="BD209">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BE209">
-        <v>360</v>
+        <v>980</v>
       </c>
       <c r="BF209">
         <v>33098371</v>
@@ -43388,160 +43358,160 @@
         <v>595</v>
       </c>
       <c r="F210">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="G210">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="H210">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="I210">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J210">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="K210">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L210">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="M210">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N210">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="O210">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="P210">
         <v>1.66</v>
       </c>
       <c r="Q210">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="R210">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S210">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T210">
+        <v>17</v>
+      </c>
+      <c r="U210">
+        <v>18.5</v>
+      </c>
+      <c r="V210">
+        <v>17</v>
+      </c>
+      <c r="W210">
+        <v>20</v>
+      </c>
+      <c r="X210">
+        <v>30</v>
+      </c>
+      <c r="Y210">
+        <v>34</v>
+      </c>
+      <c r="Z210">
+        <v>55</v>
+      </c>
+      <c r="AA210">
+        <v>980</v>
+      </c>
+      <c r="AB210">
+        <v>10</v>
+      </c>
+      <c r="AC210">
+        <v>11.5</v>
+      </c>
+      <c r="AD210">
+        <v>8.4</v>
+      </c>
+      <c r="AE210">
+        <v>9.4</v>
+      </c>
+      <c r="AF210">
         <v>15.5</v>
       </c>
-      <c r="U210">
-        <v>21</v>
-      </c>
-      <c r="V210">
-        <v>15</v>
-      </c>
-      <c r="W210">
-        <v>21</v>
-      </c>
-      <c r="X210">
-        <v>26</v>
-      </c>
-      <c r="Y210">
-        <v>36</v>
-      </c>
-      <c r="Z210">
-        <v>60</v>
-      </c>
-      <c r="AA210">
-        <v>90</v>
-      </c>
-      <c r="AB210">
-        <v>9.4</v>
-      </c>
-      <c r="AC210">
-        <v>12.5</v>
-      </c>
-      <c r="AD210">
-        <v>7.8</v>
-      </c>
-      <c r="AE210">
+      <c r="AG210">
+        <v>17</v>
+      </c>
+      <c r="AH210">
+        <v>40</v>
+      </c>
+      <c r="AI210">
+        <v>48</v>
+      </c>
+      <c r="AJ210">
+        <v>11.5</v>
+      </c>
+      <c r="AK210">
+        <v>13</v>
+      </c>
+      <c r="AL210">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM210">
         <v>10.5</v>
       </c>
-      <c r="AF210">
-        <v>13.5</v>
-      </c>
-      <c r="AG210">
-        <v>18.5</v>
-      </c>
-      <c r="AH210">
-        <v>34</v>
-      </c>
-      <c r="AI210">
-        <v>50</v>
-      </c>
-      <c r="AJ210">
-        <v>10.5</v>
-      </c>
-      <c r="AK210">
-        <v>14.5</v>
-      </c>
-      <c r="AL210">
-        <v>8.6</v>
-      </c>
-      <c r="AM210">
-        <v>11.5</v>
-      </c>
       <c r="AN210">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO210">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AP210">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AQ210">
         <v>55</v>
       </c>
       <c r="AR210">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS210">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AT210">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU210">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AV210">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW210">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AX210">
         <v>60</v>
       </c>
       <c r="AY210">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AZ210">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="BA210">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="BB210">
-        <v>1.01</v>
+        <v>26</v>
       </c>
       <c r="BC210">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BD210">
-        <v>1.01</v>
+        <v>13.5</v>
       </c>
       <c r="BE210">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF210">
         <v>33098348</v>
@@ -43585,157 +43555,157 @@
         <v>596</v>
       </c>
       <c r="F211">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="G211">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H211">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I211">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="J211">
-        <v>2.68</v>
+        <v>3.1</v>
       </c>
       <c r="K211">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="L211">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="M211">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="N211">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="O211">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="P211">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="Q211">
-        <v>2.54</v>
+        <v>2.32</v>
       </c>
       <c r="R211">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="S211">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="T211">
+        <v>7.4</v>
+      </c>
+      <c r="U211">
+        <v>8.6</v>
+      </c>
+      <c r="V211">
+        <v>9.6</v>
+      </c>
+      <c r="W211">
+        <v>11</v>
+      </c>
+      <c r="X211">
+        <v>5.9</v>
+      </c>
+      <c r="Y211">
+        <v>32</v>
+      </c>
+      <c r="Z211">
+        <v>6.8</v>
+      </c>
+      <c r="AA211">
+        <v>1000</v>
+      </c>
+      <c r="AB211">
         <v>6.6</v>
       </c>
-      <c r="U211">
-        <v>11</v>
-      </c>
-      <c r="V211">
-        <v>8.4</v>
-      </c>
-      <c r="W211">
-        <v>14</v>
-      </c>
-      <c r="X211">
-        <v>20</v>
-      </c>
-      <c r="Y211">
-        <v>34</v>
-      </c>
-      <c r="Z211">
-        <v>1.01</v>
-      </c>
-      <c r="AA211">
-        <v>1000</v>
-      </c>
-      <c r="AB211">
-        <v>5.7</v>
-      </c>
       <c r="AC211">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AD211">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="AE211">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="AF211">
         <v>13</v>
       </c>
       <c r="AG211">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH211">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="AI211">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AJ211">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AK211">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AL211">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AM211">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AN211">
         <v>17</v>
       </c>
       <c r="AO211">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AP211">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="AQ211">
         <v>1000</v>
       </c>
       <c r="AR211">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="AS211">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AT211">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="AU211">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AV211">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="AW211">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AX211">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="AY211">
         <v>1000</v>
       </c>
       <c r="AZ211">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="BA211">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="BB211">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="BC211">
         <v>1000</v>
       </c>
       <c r="BD211">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="BE211">
         <v>1000</v>
